--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2569884.234930946</v>
+        <v>-2572483.029901607</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>136.0695761964027</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9811492522526</v>
@@ -677,7 +677,7 @@
         <v>295.2163363185219</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>43.86785806562895</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>110.5418770458108</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.1780969433633</v>
       </c>
       <c r="U2" t="n">
         <v>250.9999258468059</v>
       </c>
       <c r="V2" t="n">
-        <v>196.9700998847704</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>105.4318292542961</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -756,7 +756,7 @@
         <v>89.90394266080568</v>
       </c>
       <c r="I3" t="n">
-        <v>19.9118952728553</v>
+        <v>19.91189527285529</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.116953416516736</v>
+        <v>2.116953416516708</v>
       </c>
       <c r="S3" t="n">
         <v>128.73407520327</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>153.469444576199</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>68.41687353865386</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>13.19308292758884</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0524636397191</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9920054808266</v>
+        <v>144.9920054808265</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>26.36535177769973</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>184.1477353216906</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1057,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>88.01862963320949</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>69.51608747328031</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>75.45713216103701</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>121.1059660434838</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>137.9582238800491</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>18.6917466729792</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1582,19 +1582,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V13" t="n">
-        <v>177.9413471369422</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365955</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>80.08971311158628</v>
       </c>
     </row>
     <row r="14">
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812072</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892435</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>112.5005260950192</v>
       </c>
     </row>
     <row r="17">
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>80.08971311158678</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856548</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892442</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605715943</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>11.56087338713363</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892444</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583756</v>
       </c>
       <c r="I25" t="n">
-        <v>65.56423921895157</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652545</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,16 +2959,16 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308917</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.240968717414</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2302.396155086843</v>
+        <v>1345.937018853136</v>
       </c>
       <c r="C2" t="n">
-        <v>1933.433638146432</v>
+        <v>1345.937018853136</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.167939539681</v>
+        <v>1208.493002493133</v>
       </c>
       <c r="E2" t="n">
-        <v>1189.379686941437</v>
+        <v>822.7047498948891</v>
       </c>
       <c r="F2" t="n">
-        <v>778.3937821518298</v>
+        <v>822.7047498948891</v>
       </c>
       <c r="G2" t="n">
-        <v>363.2613081596554</v>
+        <v>407.5722759027149</v>
       </c>
       <c r="H2" t="n">
-        <v>65.06298864599682</v>
+        <v>109.3739563890564</v>
       </c>
       <c r="I2" t="n">
-        <v>65.06298864599682</v>
+        <v>65.06298864599685</v>
       </c>
       <c r="J2" t="n">
-        <v>248.9490509731309</v>
+        <v>248.9490509731313</v>
       </c>
       <c r="K2" t="n">
-        <v>575.2851091032912</v>
+        <v>575.2851091032919</v>
       </c>
       <c r="L2" t="n">
-        <v>1017.035607679883</v>
+        <v>1017.035607679884</v>
       </c>
       <c r="M2" t="n">
-        <v>1540.237590999098</v>
+        <v>1540.237590999099</v>
       </c>
       <c r="N2" t="n">
-        <v>2076.519337778084</v>
+        <v>2076.519337778085</v>
       </c>
       <c r="O2" t="n">
-        <v>2569.579722854077</v>
+        <v>2569.579722854078</v>
       </c>
       <c r="P2" t="n">
-        <v>2955.894353302312</v>
+        <v>2955.894353302313</v>
       </c>
       <c r="Q2" t="n">
-        <v>3197.827805704724</v>
+        <v>3197.827805704725</v>
       </c>
       <c r="R2" t="n">
-        <v>3253.149432299841</v>
+        <v>3253.149432299843</v>
       </c>
       <c r="S2" t="n">
-        <v>3141.490970637406</v>
+        <v>3253.149432299843</v>
       </c>
       <c r="T2" t="n">
-        <v>3141.490970637406</v>
+        <v>3046.90893033685</v>
       </c>
       <c r="U2" t="n">
-        <v>2887.955692004269</v>
+        <v>2793.373651703712</v>
       </c>
       <c r="V2" t="n">
-        <v>2688.995995150965</v>
+        <v>2462.310764360142</v>
       </c>
       <c r="W2" t="n">
-        <v>2688.995995150965</v>
+        <v>2109.542109090027</v>
       </c>
       <c r="X2" t="n">
-        <v>2688.995995150965</v>
+        <v>1736.076350828947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2688.995995150965</v>
+        <v>1345.937018853136</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1679.658324549948</v>
+        <v>888.8020873615133</v>
       </c>
       <c r="C3" t="n">
-        <v>1505.20529526882</v>
+        <v>714.3490580803863</v>
       </c>
       <c r="D3" t="n">
-        <v>1356.270885607569</v>
+        <v>565.4146484191349</v>
       </c>
       <c r="E3" t="n">
-        <v>1197.033430602114</v>
+        <v>458.917851192573</v>
       </c>
       <c r="F3" t="n">
-        <v>1050.498872628999</v>
+        <v>312.383293219458</v>
       </c>
       <c r="G3" t="n">
-        <v>914.1036568774174</v>
+        <v>175.9880774678766</v>
       </c>
       <c r="H3" t="n">
-        <v>823.2915935836743</v>
+        <v>85.17601417413351</v>
       </c>
       <c r="I3" t="n">
-        <v>803.1785680555377</v>
+        <v>65.06298864599685</v>
       </c>
       <c r="J3" t="n">
-        <v>893.8820000749452</v>
+        <v>155.7664206654044</v>
       </c>
       <c r="K3" t="n">
-        <v>1127.063437151131</v>
+        <v>388.9478577415908</v>
       </c>
       <c r="L3" t="n">
-        <v>1486.927196831875</v>
+        <v>748.8116174223339</v>
       </c>
       <c r="M3" t="n">
-        <v>1926.228098874589</v>
+        <v>1188.112519465049</v>
       </c>
       <c r="N3" t="n">
-        <v>2391.564633529491</v>
+        <v>1653.449054119951</v>
       </c>
       <c r="O3" t="n">
-        <v>2795.036856668788</v>
+        <v>2056.921277259248</v>
       </c>
       <c r="P3" t="n">
-        <v>3099.525820234323</v>
+        <v>2361.410240824784</v>
       </c>
       <c r="Q3" t="n">
-        <v>3253.149432299841</v>
+        <v>2515.033852890301</v>
       </c>
       <c r="R3" t="n">
-        <v>3251.011095515481</v>
+        <v>2512.895516105941</v>
       </c>
       <c r="S3" t="n">
-        <v>3120.976676118239</v>
+        <v>2382.861096708698</v>
       </c>
       <c r="T3" t="n">
-        <v>2928.204227454518</v>
+        <v>2190.088648044978</v>
       </c>
       <c r="U3" t="n">
-        <v>2700.134267721553</v>
+        <v>1962.018688312012</v>
       </c>
       <c r="V3" t="n">
-        <v>2464.98215948981</v>
+        <v>1726.86658008027</v>
       </c>
       <c r="W3" t="n">
-        <v>2210.744802761608</v>
+        <v>1472.629223352068</v>
       </c>
       <c r="X3" t="n">
-        <v>2002.893302556075</v>
+        <v>1264.777723146535</v>
       </c>
       <c r="Y3" t="n">
-        <v>1847.873661570016</v>
+        <v>1057.017424381581</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>711.628489822739</v>
+        <v>3184.041479230495</v>
       </c>
       <c r="C4" t="n">
-        <v>542.6923068948321</v>
+        <v>3184.041479230495</v>
       </c>
       <c r="D4" t="n">
-        <v>392.5756674824963</v>
+        <v>3033.92483981816</v>
       </c>
       <c r="E4" t="n">
-        <v>379.2493210909925</v>
+        <v>2886.011746235767</v>
       </c>
       <c r="F4" t="n">
-        <v>379.2493210909925</v>
+        <v>2739.121798737856</v>
       </c>
       <c r="G4" t="n">
-        <v>211.5195598387509</v>
+        <v>2571.392037485615</v>
       </c>
       <c r="H4" t="n">
-        <v>65.06298864599682</v>
+        <v>2424.935466292861</v>
       </c>
       <c r="I4" t="n">
-        <v>65.06298864599682</v>
+        <v>2424.935466292861</v>
       </c>
       <c r="J4" t="n">
-        <v>75.0200521227427</v>
+        <v>2434.892529769607</v>
       </c>
       <c r="K4" t="n">
-        <v>170.2650045033533</v>
+        <v>2530.137482150218</v>
       </c>
       <c r="L4" t="n">
-        <v>322.0515495633493</v>
+        <v>2681.924027210214</v>
       </c>
       <c r="M4" t="n">
-        <v>485.3474622992786</v>
+        <v>2845.219939946143</v>
       </c>
       <c r="N4" t="n">
-        <v>652.6180891206068</v>
+        <v>3012.490566767471</v>
       </c>
       <c r="O4" t="n">
-        <v>786.8064976079667</v>
+        <v>3146.678975254831</v>
       </c>
       <c r="P4" t="n">
-        <v>882.5658916983275</v>
+        <v>3242.438369345191</v>
       </c>
       <c r="Q4" t="n">
-        <v>893.2769546529787</v>
+        <v>3253.149432299843</v>
       </c>
       <c r="R4" t="n">
-        <v>893.2769546529787</v>
+        <v>3253.149432299843</v>
       </c>
       <c r="S4" t="n">
-        <v>893.2769546529787</v>
+        <v>3253.149432299843</v>
       </c>
       <c r="T4" t="n">
-        <v>893.2769546529787</v>
+        <v>3253.149432299843</v>
       </c>
       <c r="U4" t="n">
-        <v>893.2769546529787</v>
+        <v>3253.149432299843</v>
       </c>
       <c r="V4" t="n">
-        <v>893.2769546529787</v>
+        <v>3253.149432299843</v>
       </c>
       <c r="W4" t="n">
-        <v>893.2769546529787</v>
+        <v>3253.149432299843</v>
       </c>
       <c r="X4" t="n">
-        <v>893.2769546529787</v>
+        <v>3253.149432299843</v>
       </c>
       <c r="Y4" t="n">
-        <v>893.2769546529787</v>
+        <v>3253.149432299843</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1636.624422581789</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1259.215687003708</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>900.9499883969577</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>515.1617357987134</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>104.1758310091058</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>93.14378489450637</v>
       </c>
       <c r="H5" t="n">
         <v>66.5121164321834</v>
@@ -4568,7 +4568,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4598,19 +4598,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V5" t="n">
-        <v>3139.598008152917</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W5" t="n">
-        <v>2786.829352882803</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X5" t="n">
-        <v>2413.363594621723</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>2023.224262645911</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="6">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>471.2459535582122</v>
+        <v>917.616325937273</v>
       </c>
       <c r="C7" t="n">
-        <v>302.3097706303054</v>
+        <v>748.6801430093661</v>
       </c>
       <c r="D7" t="n">
-        <v>302.3097706303054</v>
+        <v>598.5635035970304</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>450.6504100146373</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
         <v>66.5121164321834</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V7" t="n">
-        <v>1391.09371846696</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W7" t="n">
-        <v>1101.676548429999</v>
+        <v>1548.04692080906</v>
       </c>
       <c r="X7" t="n">
-        <v>873.6869975319821</v>
+        <v>1320.057369911043</v>
       </c>
       <c r="Y7" t="n">
-        <v>652.894418388452</v>
+        <v>1099.264790767513</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943747</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.370295943747</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="D8" t="n">
-        <v>1308.370295943747</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>528.4218742137291</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,31 +4799,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.5757713318899</v>
+        <v>914.1161452244863</v>
       </c>
       <c r="C10" t="n">
-        <v>529.639588403983</v>
+        <v>914.1161452244863</v>
       </c>
       <c r="D10" t="n">
-        <v>379.5229489916472</v>
+        <v>763.9995058121506</v>
       </c>
       <c r="E10" t="n">
-        <v>231.6098554092541</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>231.6098554092541</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>231.6098554092541</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>85.3926686271119</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4996,16 +4996,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X10" t="n">
-        <v>880.2242361621296</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="Y10" t="n">
-        <v>880.2242361621296</v>
+        <v>914.1161452244863</v>
       </c>
     </row>
     <row r="11">
@@ -5045,22 +5045,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5200,49 +5200,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1797.722346028749</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138403</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,16 +5279,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400719</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
         <v>484.8112968429803</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,7 +5452,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138418</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703116</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5510,10 +5510,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075813</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.646179883601</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969556941</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138407</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138407</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="20">
@@ -5738,19 +5738,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075813</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>721.7774158311363</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C22" t="n">
-        <v>552.8412329032294</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908937</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908937</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908937</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270441</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2185.384895601574</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>903.425880661376</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
         <v>1896.176478190825</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327645</v>
+        <v>580.8993044876684</v>
       </c>
       <c r="C25" t="n">
-        <v>763.7541388327645</v>
+        <v>411.9631215597618</v>
       </c>
       <c r="D25" t="n">
-        <v>763.7541388327645</v>
+        <v>411.9631215597618</v>
       </c>
       <c r="E25" t="n">
-        <v>615.8410452503714</v>
+        <v>411.9631215597618</v>
       </c>
       <c r="F25" t="n">
-        <v>468.9510977524611</v>
+        <v>411.9631215597618</v>
       </c>
       <c r="G25" t="n">
-        <v>301.754998467341</v>
+        <v>244.7670222746417</v>
       </c>
       <c r="H25" t="n">
-        <v>160.0431673095391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6160,10 +6160,10 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
@@ -6172,25 +6172,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614382</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630042</v>
+        <v>762.5477693179081</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384016</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
@@ -6388,7 +6388,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6406,28 +6406,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6616,16 +6616,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6634,13 +6634,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
@@ -6692,37 +6692,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6844,7 +6844,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,31 +6853,31 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,7 +6889,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954154</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380734</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311328</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
         <v>2179.340199382519</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,7 +7190,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,13 +7248,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7263,16 +7263,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,31 +7333,31 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7555,7 +7555,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,19 +7582,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7625,31 +7625,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,37 +7658,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7786,13 +7786,13 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>218.6134654242803</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>43.86785806562898</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>110.5418770458107</v>
       </c>
       <c r="T2" t="n">
-        <v>204.1780969433633</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>130.7821585853645</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22632,7 +22632,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>52.21325120110482</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -22692,7 +22692,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>52.21325120110538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22702,19 +22702,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>111.4151066432834</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>133.2408797189803</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>97.15402040370428</v>
+        <v>97.15402040370427</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>90.1306755145643</v>
+        <v>90.13067551456429</v>
       </c>
       <c r="S4" t="n">
-        <v>190.2335559203904</v>
+        <v>190.2335559203903</v>
       </c>
       <c r="T4" t="n">
         <v>219.6628404482119</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>74.1962961868858</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>138.4949402405085</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405071</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>106.0841272570755</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>68.52575990662558</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.494940240508</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>205.8445769401546</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>72.11969353038633</v>
       </c>
       <c r="I25" t="n">
-        <v>15.70159709961396</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16230.4555807183</v>
+        <v>16230.45558071831</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="D2" t="n">
         <v>20526.04424660708</v>
@@ -26329,28 +26329,28 @@
         <v>20178.66499225015</v>
       </c>
       <c r="H2" t="n">
-        <v>20178.66499225015</v>
+        <v>20178.66499225014</v>
       </c>
       <c r="I2" t="n">
         <v>20178.66499225015</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="K2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.04424660711</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="N2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="P2" t="n">
         <v>20526.0442466071</v>
@@ -26366,13 +26366,13 @@
         <v>1308430.533701948</v>
       </c>
       <c r="C3" t="n">
-        <v>19312.30676833879</v>
+        <v>19312.30676833847</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>232219.4755097967</v>
+        <v>232219.4755097968</v>
       </c>
       <c r="K3" t="n">
-        <v>4661.989000940824</v>
+        <v>4661.989000940795</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>572.0114859742001</v>
+        <v>572.0114859742004</v>
       </c>
       <c r="C4" t="n">
         <v>93403.78684820636</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685503</v>
+        <v>14216.75207685504</v>
       </c>
       <c r="F4" t="n">
         <v>14216.75207685505</v>
@@ -26439,25 +26439,25 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>22207.61133994852</v>
+        <v>22207.61133994853</v>
       </c>
       <c r="K4" t="n">
         <v>22207.61133994852</v>
       </c>
       <c r="L4" t="n">
+        <v>22207.61133994848</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22207.61133994847</v>
+      </c>
+      <c r="N4" t="n">
         <v>22207.61133994852</v>
-      </c>
-      <c r="M4" t="n">
-        <v>22207.61133994853</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22207.61133994851</v>
       </c>
       <c r="O4" t="n">
         <v>22207.61133994852</v>
       </c>
       <c r="P4" t="n">
-        <v>22207.61133994853</v>
+        <v>22207.61133994851</v>
       </c>
     </row>
     <row r="5">
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1399282.453730708</v>
+        <v>-1399712.012597297</v>
       </c>
       <c r="C6" t="n">
-        <v>-200123.9899313314</v>
+        <v>-200123.989931331</v>
       </c>
       <c r="D6" t="n">
-        <v>-180811.6831629926</v>
+        <v>-180811.6831629925</v>
       </c>
       <c r="E6" t="n">
-        <v>-420573.0787158672</v>
+        <v>-420607.8166413028</v>
       </c>
       <c r="F6" t="n">
-        <v>-95160.61690851202</v>
+        <v>-95195.35483394771</v>
       </c>
       <c r="G6" t="n">
-        <v>-95160.61690851201</v>
+        <v>-95195.35483394771</v>
       </c>
       <c r="H6" t="n">
-        <v>-95160.61690851202</v>
+        <v>-95195.35483394771</v>
       </c>
       <c r="I6" t="n">
-        <v>-95160.61690851202</v>
+        <v>-95195.35483394771</v>
       </c>
       <c r="J6" t="n">
-        <v>-337065.1584570535</v>
+        <v>-337065.1584570537</v>
       </c>
       <c r="K6" t="n">
         <v>-109507.6719481976</v>
@@ -26552,10 +26552,10 @@
         <v>-104845.6829472568</v>
       </c>
       <c r="M6" t="n">
-        <v>-189900.7108827687</v>
+        <v>-189900.7108827686</v>
       </c>
       <c r="N6" t="n">
-        <v>-104845.6829472568</v>
+        <v>-104845.6829472567</v>
       </c>
       <c r="O6" t="n">
         <v>-124273.4009408886</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1074.995080392017</v>
+        <v>1074.995080392018</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749604</v>
+        <v>813.2873580749607</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,13 +26814,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1074.995080392017</v>
+        <v>1074.995080392018</v>
       </c>
       <c r="C3" t="n">
-        <v>14.78162020128093</v>
+        <v>14.7816202012807</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749604</v>
+        <v>813.2873580749607</v>
       </c>
       <c r="C4" t="n">
-        <v>18.11409732733216</v>
+        <v>18.11409732733182</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749604</v>
+        <v>813.2873580749608</v>
       </c>
       <c r="K4" t="n">
-        <v>18.11409732733216</v>
+        <v>18.11409732733205</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749604</v>
+        <v>813.2873580749607</v>
       </c>
       <c r="K4" t="n">
-        <v>18.11409732733216</v>
+        <v>18.11409732733182</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>268.2424126096207</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27670,10 +27670,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>143.6045231484443</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27777,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>58.41533301335969</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>75.90496054965094</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27831,7 +27831,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,19 +27853,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>306.4732379112248</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>289.8157596099696</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>8.475738766520095</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>77.6606737368589</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-9.831888791845542e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.321588262882479</v>
+        <v>4.32158826288248</v>
       </c>
       <c r="H2" t="n">
-        <v>44.25846579724519</v>
+        <v>44.25846579724521</v>
       </c>
       <c r="I2" t="n">
-        <v>166.6080315047769</v>
+        <v>166.608031504777</v>
       </c>
       <c r="J2" t="n">
-        <v>366.7894018268221</v>
+        <v>366.7894018268222</v>
       </c>
       <c r="K2" t="n">
-        <v>549.7222329946376</v>
+        <v>549.7222329946377</v>
       </c>
       <c r="L2" t="n">
-        <v>681.9790397948274</v>
+        <v>681.9790397948275</v>
       </c>
       <c r="M2" t="n">
-        <v>758.8330850648636</v>
+        <v>758.8330850648638</v>
       </c>
       <c r="N2" t="n">
-        <v>771.1117977167785</v>
+        <v>771.1117977167786</v>
       </c>
       <c r="O2" t="n">
-        <v>728.1390044277408</v>
+        <v>728.1390044277409</v>
       </c>
       <c r="P2" t="n">
-        <v>621.4497941878295</v>
+        <v>621.4497941878296</v>
       </c>
       <c r="Q2" t="n">
-        <v>466.6829145233506</v>
+        <v>466.6829145233507</v>
       </c>
       <c r="R2" t="n">
-        <v>271.4659687182917</v>
+        <v>271.4659687182918</v>
       </c>
       <c r="S2" t="n">
-        <v>98.47819254043458</v>
+        <v>98.47819254043461</v>
       </c>
       <c r="T2" t="n">
         <v>18.91775262076806</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3457270610305982</v>
+        <v>0.3457270610305983</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31118,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.312253569145094</v>
+        <v>2.312253569145095</v>
       </c>
       <c r="H3" t="n">
         <v>22.33150157569078</v>
       </c>
       <c r="I3" t="n">
-        <v>79.61048472714469</v>
+        <v>79.61048472714471</v>
       </c>
       <c r="J3" t="n">
         <v>218.4572549690986</v>
       </c>
       <c r="K3" t="n">
-        <v>373.3782441018199</v>
+        <v>373.37824410182</v>
       </c>
       <c r="L3" t="n">
-        <v>502.0531269321399</v>
+        <v>502.05312693214</v>
       </c>
       <c r="M3" t="n">
-        <v>585.8723188136494</v>
+        <v>585.8723188136495</v>
       </c>
       <c r="N3" t="n">
-        <v>601.3786157751532</v>
+        <v>601.3786157751533</v>
       </c>
       <c r="O3" t="n">
-        <v>550.1439445851487</v>
+        <v>550.1439445851488</v>
       </c>
       <c r="P3" t="n">
-        <v>441.5390170764873</v>
+        <v>441.5390170764874</v>
       </c>
       <c r="Q3" t="n">
         <v>295.1571398087668</v>
@@ -31154,10 +31154,10 @@
         <v>143.5625505474472</v>
       </c>
       <c r="S3" t="n">
-        <v>42.94909590056783</v>
+        <v>42.94909590056785</v>
       </c>
       <c r="T3" t="n">
-        <v>9.320004517738337</v>
+        <v>9.320004517738338</v>
       </c>
       <c r="U3" t="n">
         <v>0.1521219453384931</v>
@@ -31197,25 +31197,25 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.938515718739703</v>
+        <v>1.938515718739704</v>
       </c>
       <c r="H4" t="n">
         <v>17.23516702661301</v>
       </c>
       <c r="I4" t="n">
-        <v>58.296454523554</v>
+        <v>58.29645452355402</v>
       </c>
       <c r="J4" t="n">
         <v>137.053061314897</v>
       </c>
       <c r="K4" t="n">
-        <v>225.2202807772127</v>
+        <v>225.2202807772128</v>
       </c>
       <c r="L4" t="n">
-        <v>288.2044187660828</v>
+        <v>288.2044187660829</v>
       </c>
       <c r="M4" t="n">
-        <v>303.8711503475336</v>
+        <v>303.8711503475337</v>
       </c>
       <c r="N4" t="n">
         <v>296.6457735776859</v>
@@ -31224,22 +31224,22 @@
         <v>274.000385408772</v>
       </c>
       <c r="P4" t="n">
-        <v>234.4546647464818</v>
+        <v>234.4546647464819</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.3242571391946</v>
+        <v>162.3242571391947</v>
       </c>
       <c r="R4" t="n">
-        <v>87.16271586260518</v>
+        <v>87.1627158626052</v>
       </c>
       <c r="S4" t="n">
-        <v>33.78304211658191</v>
+        <v>33.78304211658192</v>
       </c>
       <c r="T4" t="n">
-        <v>8.282748980069639</v>
+        <v>8.282748980069641</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1057372210221657</v>
+        <v>0.1057372210221658</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,19 +31847,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32087,16 +32087,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32236,7 +32236,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L17" t="n">
         <v>867.846407116256</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O18" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32473,7 +32473,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,19 +32558,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>340.4395077511235</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32944,7 +32944,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>416.4300581532626</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>604.7968300725072</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>185.7434973001358</v>
+        <v>185.7434973001359</v>
       </c>
       <c r="K2" t="n">
-        <v>329.632381949657</v>
+        <v>329.6323819496571</v>
       </c>
       <c r="L2" t="n">
-        <v>446.2126248248401</v>
+        <v>446.2126248248402</v>
       </c>
       <c r="M2" t="n">
-        <v>528.4868518375908</v>
+        <v>528.4868518375911</v>
       </c>
       <c r="N2" t="n">
-        <v>541.6987341201875</v>
+        <v>541.6987341201877</v>
       </c>
       <c r="O2" t="n">
-        <v>498.0407930060541</v>
+        <v>498.0407930060542</v>
       </c>
       <c r="P2" t="n">
-        <v>390.21679843256</v>
+        <v>390.2167984325601</v>
       </c>
       <c r="Q2" t="n">
-        <v>244.3772246489011</v>
+        <v>244.3772246489012</v>
       </c>
       <c r="R2" t="n">
-        <v>55.8804309041596</v>
+        <v>55.88043090415965</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>91.61962830243189</v>
+        <v>91.61962830243195</v>
       </c>
       <c r="K3" t="n">
-        <v>235.5368051274609</v>
+        <v>235.536805127461</v>
       </c>
       <c r="L3" t="n">
-        <v>363.4987471522657</v>
+        <v>363.4987471522658</v>
       </c>
       <c r="M3" t="n">
-        <v>443.7382848916311</v>
+        <v>443.7382848916312</v>
       </c>
       <c r="N3" t="n">
-        <v>470.0369036918199</v>
+        <v>470.03690369182</v>
       </c>
       <c r="O3" t="n">
-        <v>407.5477001407043</v>
+        <v>407.5477001407044</v>
       </c>
       <c r="P3" t="n">
-        <v>307.5646096621571</v>
+        <v>307.5646096621572</v>
       </c>
       <c r="Q3" t="n">
         <v>155.1753657227453</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.0576398755009</v>
+        <v>10.05763987550093</v>
       </c>
       <c r="K4" t="n">
-        <v>96.20702260667736</v>
+        <v>96.20702260667741</v>
       </c>
       <c r="L4" t="n">
-        <v>153.3197424848445</v>
+        <v>153.3197424848446</v>
       </c>
       <c r="M4" t="n">
         <v>164.9453663999286</v>
@@ -34869,13 +34869,13 @@
         <v>168.9602291124527</v>
       </c>
       <c r="O4" t="n">
-        <v>135.5438469569292</v>
+        <v>135.5438469569293</v>
       </c>
       <c r="P4" t="n">
-        <v>96.72666069733421</v>
+        <v>96.72666069733427</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.81925550974879</v>
+        <v>10.81925550974881</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,19 +35495,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010445</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35735,16 +35735,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O18" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,19 +36206,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>197.843263306679</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>274.2960242312443</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,16 +36753,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
         <v>397.5465471980851</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>263.67989750701</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,16 +38178,16 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
